--- a/Output/时间轴配置/时间轴 p2s 诗人.xlsx
+++ b/Output/时间轴配置/时间轴 p2s 诗人.xlsx
@@ -331,7 +331,7 @@
     <t>#上天禁止爆发</t>
   </si>
   <si>
-    <t>Action:Burst:是否允许爆发</t>
+    <t>Action:SwitchBurst:是否允许爆发</t>
   </si>
   <si>
     <t>#落地开启爆发</t>
@@ -366,6 +366,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -374,8 +410,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,35 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -426,20 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -448,6 +442,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -465,6 +474,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -480,37 +511,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -572,61 +572,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,42 +704,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,66 +741,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,22 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,17 +784,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,15 +833,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,21 +851,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -862,7 +862,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,133 +871,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1832,14 +1832,14 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E8 E9 E10 E11 E12 E13 E14 E15">
-      <formula1>'[1]#参数说明'!#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D8 D9 D10 D11 D12 D13 D14 D15">
+      <formula1>"Cond,Action"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>$C$4:$AQ$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D8 D9 D10 D11 D12 D13 D14 D15">
-      <formula1>"Cond,Action"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E8 E9 E10 E11 E12 E13 E14 E15">
+      <formula1>'[1]#参数说明'!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
